--- a/Task-1.xlsx
+++ b/Task-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BE8CCA-2016-4CE3-ADB1-EB6AB1056BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF79FDE-6CBF-451D-BEB0-431E0D26A114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1" sheetId="2" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="151">
   <si>
     <t>Date</t>
   </si>
@@ -400,9 +400,6 @@
     <t>Q-3. Overview of when to use SUMIF and COUNTIF functions in Excel.</t>
   </si>
   <si>
-    <t>Q-3(A). Find the no. of spaces from the above text string?</t>
-  </si>
-  <si>
     <t>Q-3(B). Find the length of above text string without space?</t>
   </si>
   <si>
@@ -521,6 +518,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Find the no. of spaces from the above text string?</t>
+  </si>
+  <si>
+    <t>Q-3(A).   Find the no. of spaces from the above text string?</t>
   </si>
 </sst>
 </file>
@@ -537,7 +540,7 @@
     <numFmt numFmtId="170" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
     <numFmt numFmtId="171" formatCode="dd\-mm\-yy"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -630,6 +633,13 @@
     <font>
       <b/>
       <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1498,10 +1508,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1657,7 +1668,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1699,15 +1709,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1756,6 +1757,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="9" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1783,6 +1790,45 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1795,12 +1841,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1819,81 +1859,57 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1903,46 +1919,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1969,17 +1955,32 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2017,42 +2018,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -3567,8 +3536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA9157C-17E4-4539-9F73-7788D71432E9}">
   <dimension ref="A1:R65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3582,7 +3551,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="69" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -3594,7 +3563,7 @@
       <c r="I1" s="41"/>
       <c r="J1" s="41"/>
       <c r="K1" s="45"/>
-      <c r="L1" s="98"/>
+      <c r="L1" s="97"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
@@ -3603,17 +3572,17 @@
       <c r="R1" s="5"/>
     </row>
     <row r="2" spans="1:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="94"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="89"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="88"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -3623,22 +3592,22 @@
       <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="207" t="s">
+      <c r="A3" s="203" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="208"/>
-      <c r="C3" s="208"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="222" t="s">
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="197" t="s">
         <v>84</v>
       </c>
-      <c r="H3" s="223"/>
-      <c r="I3" s="223"/>
-      <c r="J3" s="223"/>
-      <c r="K3" s="224"/>
-      <c r="L3" s="98"/>
+      <c r="H3" s="198"/>
+      <c r="I3" s="198"/>
+      <c r="J3" s="198"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="97"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -3647,21 +3616,21 @@
       <c r="R3" s="5"/>
     </row>
     <row r="4" spans="1:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="210"/>
-      <c r="B4" s="211"/>
-      <c r="C4" s="211"/>
-      <c r="D4" s="211"/>
-      <c r="E4" s="212"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="213" t="s">
+      <c r="A4" s="206"/>
+      <c r="B4" s="207"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="208"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="209" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="214"/>
-      <c r="I4" s="215"/>
-      <c r="J4" s="213" t="s">
+      <c r="H4" s="210"/>
+      <c r="I4" s="211"/>
+      <c r="J4" s="209" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="215"/>
+      <c r="K4" s="211"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -3673,16 +3642,16 @@
     <row r="5" spans="1:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="31"/>
       <c r="E5" s="31"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="216" t="s">
+      <c r="F5" s="88"/>
+      <c r="G5" s="212" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="217"/>
-      <c r="I5" s="218"/>
-      <c r="J5" s="216" t="s">
+      <c r="H5" s="213"/>
+      <c r="I5" s="214"/>
+      <c r="J5" s="212" t="s">
         <v>86</v>
       </c>
-      <c r="K5" s="218"/>
+      <c r="K5" s="214"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -3692,23 +3661,23 @@
       <c r="R5" s="5"/>
     </row>
     <row r="6" spans="1:18" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="99" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="225" t="s">
+      <c r="B6" s="110"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="H6" s="226"/>
-      <c r="I6" s="227"/>
-      <c r="J6" s="225" t="s">
+      <c r="H6" s="201"/>
+      <c r="I6" s="202"/>
+      <c r="J6" s="200" t="s">
         <v>88</v>
       </c>
-      <c r="K6" s="227"/>
+      <c r="K6" s="202"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -3718,23 +3687,23 @@
       <c r="R6" s="5"/>
     </row>
     <row r="7" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="108" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="225" t="s">
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="200" t="s">
         <v>89</v>
       </c>
-      <c r="H7" s="226"/>
-      <c r="I7" s="227"/>
-      <c r="J7" s="225" t="s">
+      <c r="H7" s="201"/>
+      <c r="I7" s="202"/>
+      <c r="J7" s="200" t="s">
         <v>90</v>
       </c>
-      <c r="K7" s="227"/>
+      <c r="K7" s="202"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -3749,16 +3718,16 @@
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="225" t="s">
+      <c r="F8" s="88"/>
+      <c r="G8" s="200" t="s">
         <v>91</v>
       </c>
-      <c r="H8" s="226"/>
-      <c r="I8" s="227"/>
-      <c r="J8" s="225" t="s">
+      <c r="H8" s="201"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="200" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="227"/>
+      <c r="K8" s="202"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -3768,16 +3737,16 @@
       <c r="R8" s="5"/>
     </row>
     <row r="9" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F9" s="89"/>
-      <c r="G9" s="219" t="s">
+      <c r="F9" s="88"/>
+      <c r="G9" s="194" t="s">
         <v>92</v>
       </c>
-      <c r="H9" s="220"/>
-      <c r="I9" s="221"/>
-      <c r="J9" s="219" t="s">
+      <c r="H9" s="195"/>
+      <c r="I9" s="196"/>
+      <c r="J9" s="194" t="s">
         <v>93</v>
       </c>
-      <c r="K9" s="221"/>
+      <c r="K9" s="196"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
@@ -3787,17 +3756,17 @@
       <c r="R9" s="5"/>
     </row>
     <row r="10" spans="1:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="89"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
+      <c r="A10" s="88"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -3807,613 +3776,715 @@
       <c r="R10" s="5"/>
     </row>
     <row r="11" spans="1:18" s="18" customFormat="1" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="101" t="s">
+      <c r="A11" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="101" t="s">
+      <c r="C11" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="101" t="s">
+      <c r="D11" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="101" t="s">
+      <c r="E11" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="101" t="s">
+      <c r="F11" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="G11" s="101" t="s">
+      <c r="G11" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="101" t="s">
+      <c r="H11" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="101" t="s">
+      <c r="I11" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="101" t="s">
+      <c r="J11" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="K11" s="101" t="s">
+      <c r="K11" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="L11" s="97"/>
-      <c r="M11" s="97"/>
-      <c r="N11" s="97"/>
-      <c r="O11" s="97"/>
-      <c r="P11" s="97"/>
-      <c r="Q11" s="97"/>
-      <c r="R11" s="97"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="96"/>
+      <c r="R11" s="96"/>
     </row>
     <row r="12" spans="1:18" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="103">
+      <c r="A12" s="102">
         <v>815864</v>
       </c>
-      <c r="B12" s="103" t="s">
+      <c r="B12" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="103">
+      <c r="C12" s="102">
         <v>57</v>
       </c>
-      <c r="D12" s="103">
+      <c r="D12" s="102">
         <v>25</v>
       </c>
-      <c r="E12" s="103">
+      <c r="E12" s="102">
         <v>41</v>
       </c>
-      <c r="F12" s="103">
+      <c r="F12" s="102">
         <v>62</v>
       </c>
-      <c r="G12" s="103">
+      <c r="G12" s="102">
         <v>93</v>
       </c>
-      <c r="H12" s="108">
+      <c r="H12" s="107">
         <f>SUM(C12:G12)</f>
         <v>278</v>
       </c>
-      <c r="I12" s="229">
-        <f>(H12/500)*100</f>
-        <v>55.600000000000009</v>
-      </c>
-      <c r="J12" s="108"/>
-      <c r="K12" s="108"/>
+      <c r="I12" s="129">
+        <f>H12/500</f>
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="J12" s="107" t="str" cm="1">
+        <f t="array" ref="J12">_xlfn.SWITCH(TRUE,I12&gt;80%,"A+",I12&gt;=60%,"A",I12&gt;=45%,"B",I12&gt;33%,"B+","C")</f>
+        <v>B</v>
+      </c>
+      <c r="K12" s="107" t="str">
+        <f>IF(I12&gt;=33%,"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
       <c r="L12" s="5"/>
       <c r="R12" s="5"/>
     </row>
     <row r="13" spans="1:18" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="104">
+      <c r="A13" s="103">
         <v>815865</v>
       </c>
-      <c r="B13" s="104" t="s">
+      <c r="B13" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="104">
+      <c r="C13" s="103">
         <v>52</v>
       </c>
-      <c r="D13" s="104">
+      <c r="D13" s="103">
         <v>64</v>
       </c>
-      <c r="E13" s="104">
+      <c r="E13" s="103">
         <v>40</v>
       </c>
-      <c r="F13" s="104">
+      <c r="F13" s="103">
         <v>62</v>
       </c>
-      <c r="G13" s="104">
+      <c r="G13" s="103">
         <v>48</v>
       </c>
-      <c r="H13" s="108">
+      <c r="H13" s="107">
         <f t="shared" ref="H13:H34" si="0">SUM(C13:G13)</f>
         <v>266</v>
       </c>
-      <c r="I13" s="229">
-        <f t="shared" ref="I13:I34" si="1">(H13/500)*100</f>
-        <v>53.2</v>
-      </c>
-      <c r="J13" s="109"/>
-      <c r="K13" s="109"/>
+      <c r="I13" s="129">
+        <f t="shared" ref="I13:I34" si="1">H13/500</f>
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="J13" s="107" t="str" cm="1">
+        <f t="array" ref="J13">_xlfn.SWITCH(TRUE,I13&gt;80%,"A+",I13&gt;=60%,"A",I13&gt;=45%,"B",I13&gt;33%,"B+","C")</f>
+        <v>B</v>
+      </c>
+      <c r="K13" s="107" t="str">
+        <f t="shared" ref="K13:K34" si="2">IF(I13&gt;=33%,"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
       <c r="L13" s="5"/>
       <c r="R13" s="5"/>
     </row>
     <row r="14" spans="1:18" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="104">
+      <c r="A14" s="103">
         <v>815866</v>
       </c>
-      <c r="B14" s="104" t="s">
+      <c r="B14" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="104">
+      <c r="C14" s="103">
         <v>35</v>
       </c>
-      <c r="D14" s="104">
+      <c r="D14" s="103">
         <v>60</v>
       </c>
-      <c r="E14" s="104">
+      <c r="E14" s="103">
         <v>44</v>
       </c>
-      <c r="F14" s="104">
+      <c r="F14" s="103">
         <v>59</v>
       </c>
-      <c r="G14" s="104">
+      <c r="G14" s="103">
         <v>82</v>
       </c>
-      <c r="H14" s="108">
+      <c r="H14" s="107">
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
-      <c r="I14" s="229">
+      <c r="I14" s="129">
         <f t="shared" si="1"/>
-        <v>56.000000000000007</v>
-      </c>
-      <c r="J14" s="109"/>
-      <c r="K14" s="109"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J14" s="107" t="str" cm="1">
+        <f t="array" ref="J14">_xlfn.SWITCH(TRUE,I14&gt;80%,"A+",I14&gt;=60%,"A",I14&gt;=45%,"B",I14&gt;33%,"B+","C")</f>
+        <v>B</v>
+      </c>
+      <c r="K14" s="107" t="str">
+        <f t="shared" si="2"/>
+        <v>Pass</v>
+      </c>
       <c r="L14" s="5"/>
       <c r="R14" s="5"/>
     </row>
     <row r="15" spans="1:18" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="104">
+      <c r="A15" s="103">
         <v>815867</v>
       </c>
-      <c r="B15" s="104" t="s">
+      <c r="B15" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="104">
+      <c r="C15" s="103">
         <v>65</v>
       </c>
-      <c r="D15" s="104">
+      <c r="D15" s="103">
         <v>86</v>
       </c>
-      <c r="E15" s="104">
+      <c r="E15" s="103">
         <v>24</v>
       </c>
-      <c r="F15" s="104">
+      <c r="F15" s="103">
         <v>88</v>
       </c>
-      <c r="G15" s="104">
+      <c r="G15" s="103">
         <v>96</v>
       </c>
-      <c r="H15" s="108">
+      <c r="H15" s="107">
         <f t="shared" si="0"/>
         <v>359</v>
       </c>
-      <c r="I15" s="229">
+      <c r="I15" s="129">
         <f t="shared" si="1"/>
-        <v>71.8</v>
-      </c>
-      <c r="J15" s="109"/>
-      <c r="K15" s="109"/>
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="J15" s="107" t="str" cm="1">
+        <f t="array" ref="J15">_xlfn.SWITCH(TRUE,I15&gt;80%,"A+",I15&gt;=60%,"A",I15&gt;=45%,"B",I15&gt;33%,"B+","C")</f>
+        <v>A</v>
+      </c>
+      <c r="K15" s="107" t="str">
+        <f t="shared" si="2"/>
+        <v>Pass</v>
+      </c>
     </row>
     <row r="16" spans="1:18" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="104">
+      <c r="A16" s="103">
         <v>815868</v>
       </c>
-      <c r="B16" s="104" t="s">
+      <c r="B16" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="104">
+      <c r="C16" s="103">
         <v>42</v>
       </c>
-      <c r="D16" s="104">
+      <c r="D16" s="103">
         <v>74</v>
       </c>
-      <c r="E16" s="104">
+      <c r="E16" s="103">
         <v>83</v>
       </c>
-      <c r="F16" s="104">
+      <c r="F16" s="103">
         <v>96</v>
       </c>
-      <c r="G16" s="104">
+      <c r="G16" s="103">
         <v>72</v>
       </c>
-      <c r="H16" s="108">
+      <c r="H16" s="107">
         <f t="shared" si="0"/>
         <v>367</v>
       </c>
-      <c r="I16" s="229">
+      <c r="I16" s="129">
         <f t="shared" si="1"/>
-        <v>73.400000000000006</v>
-      </c>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="J16" s="107" t="str" cm="1">
+        <f t="array" ref="J16">_xlfn.SWITCH(TRUE,I16&gt;80%,"A+",I16&gt;=60%,"A",I16&gt;=45%,"B",I16&gt;33%,"B+","C")</f>
+        <v>A</v>
+      </c>
+      <c r="K16" s="107" t="str">
+        <f t="shared" si="2"/>
+        <v>Pass</v>
+      </c>
     </row>
     <row r="17" spans="1:18" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="104">
+      <c r="A17" s="103">
         <v>815869</v>
       </c>
-      <c r="B17" s="104" t="s">
+      <c r="B17" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="104">
+      <c r="C17" s="103">
         <v>21</v>
       </c>
-      <c r="D17" s="104">
+      <c r="D17" s="103">
         <v>85</v>
       </c>
-      <c r="E17" s="104">
+      <c r="E17" s="103">
         <v>73</v>
       </c>
-      <c r="F17" s="104">
+      <c r="F17" s="103">
         <v>30</v>
       </c>
-      <c r="G17" s="104">
+      <c r="G17" s="103">
         <v>36</v>
       </c>
-      <c r="H17" s="108">
+      <c r="H17" s="107">
         <f t="shared" si="0"/>
         <v>245</v>
       </c>
-      <c r="I17" s="229">
+      <c r="I17" s="129">
         <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="J17" s="109"/>
-      <c r="K17" s="109"/>
+        <v>0.49</v>
+      </c>
+      <c r="J17" s="107" t="str" cm="1">
+        <f t="array" ref="J17">_xlfn.SWITCH(TRUE,I17&gt;80%,"A+",I17&gt;=60%,"A",I17&gt;=45%,"B",I17&gt;33%,"B+","C")</f>
+        <v>B</v>
+      </c>
+      <c r="K17" s="107" t="str">
+        <f t="shared" si="2"/>
+        <v>Pass</v>
+      </c>
     </row>
     <row r="18" spans="1:18" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="104">
+      <c r="A18" s="103">
         <v>815870</v>
       </c>
-      <c r="B18" s="104" t="s">
+      <c r="B18" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="104">
+      <c r="C18" s="103">
         <v>76</v>
       </c>
-      <c r="D18" s="104">
+      <c r="D18" s="103">
         <v>37</v>
       </c>
-      <c r="E18" s="104">
+      <c r="E18" s="103">
         <v>33</v>
       </c>
-      <c r="F18" s="104">
+      <c r="F18" s="103">
         <v>67</v>
       </c>
-      <c r="G18" s="104">
+      <c r="G18" s="103">
         <v>62</v>
       </c>
-      <c r="H18" s="108">
+      <c r="H18" s="107">
         <f t="shared" si="0"/>
         <v>275</v>
       </c>
-      <c r="I18" s="229">
+      <c r="I18" s="129">
         <f t="shared" si="1"/>
-        <v>55.000000000000007</v>
-      </c>
-      <c r="J18" s="109"/>
-      <c r="K18" s="109"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J18" s="107" t="str" cm="1">
+        <f t="array" ref="J18">_xlfn.SWITCH(TRUE,I18&gt;80%,"A+",I18&gt;=60%,"A",I18&gt;=45%,"B",I18&gt;33%,"B+","C")</f>
+        <v>B</v>
+      </c>
+      <c r="K18" s="107" t="str">
+        <f t="shared" si="2"/>
+        <v>Pass</v>
+      </c>
     </row>
     <row r="19" spans="1:18" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="104">
+      <c r="A19" s="103">
         <v>815871</v>
       </c>
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="104">
+      <c r="C19" s="103">
         <v>71</v>
       </c>
-      <c r="D19" s="104">
+      <c r="D19" s="103">
         <v>85</v>
       </c>
-      <c r="E19" s="104">
+      <c r="E19" s="103">
         <v>89</v>
       </c>
-      <c r="F19" s="104">
+      <c r="F19" s="103">
         <v>88</v>
       </c>
-      <c r="G19" s="104">
+      <c r="G19" s="103">
         <v>88</v>
       </c>
-      <c r="H19" s="108">
+      <c r="H19" s="107">
         <f t="shared" si="0"/>
         <v>421</v>
       </c>
-      <c r="I19" s="229">
+      <c r="I19" s="129">
         <f t="shared" si="1"/>
-        <v>84.2</v>
-      </c>
-      <c r="J19" s="109"/>
-      <c r="K19" s="109"/>
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="J19" s="107" t="str" cm="1">
+        <f t="array" ref="J19">_xlfn.SWITCH(TRUE,I19&gt;80%,"A+",I19&gt;=60%,"A",I19&gt;=45%,"B",I19&gt;33%,"B+","C")</f>
+        <v>A+</v>
+      </c>
+      <c r="K19" s="107" t="str">
+        <f t="shared" si="2"/>
+        <v>Pass</v>
+      </c>
     </row>
     <row r="20" spans="1:18" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="105">
+      <c r="A20" s="104">
         <v>815872</v>
       </c>
-      <c r="B20" s="104" t="s">
+      <c r="B20" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="105">
+      <c r="C20" s="104">
         <v>88</v>
       </c>
-      <c r="D20" s="106">
+      <c r="D20" s="105">
         <v>86</v>
       </c>
-      <c r="E20" s="106">
+      <c r="E20" s="105">
         <v>91</v>
       </c>
-      <c r="F20" s="106">
+      <c r="F20" s="105">
         <v>99</v>
       </c>
-      <c r="G20" s="106">
+      <c r="G20" s="105">
         <v>90</v>
       </c>
-      <c r="H20" s="108">
+      <c r="H20" s="107">
         <f t="shared" si="0"/>
         <v>454</v>
       </c>
-      <c r="I20" s="229">
+      <c r="I20" s="129">
         <f t="shared" si="1"/>
-        <v>90.8</v>
-      </c>
-      <c r="J20" s="110"/>
-      <c r="K20" s="109"/>
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="J20" s="107" t="str" cm="1">
+        <f t="array" ref="J20">_xlfn.SWITCH(TRUE,I20&gt;80%,"A+",I20&gt;=60%,"A",I20&gt;=45%,"B",I20&gt;33%,"B+","C")</f>
+        <v>A+</v>
+      </c>
+      <c r="K20" s="107" t="str">
+        <f t="shared" si="2"/>
+        <v>Pass</v>
+      </c>
     </row>
     <row r="21" spans="1:18" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="104">
+      <c r="A21" s="103">
         <v>815873</v>
       </c>
-      <c r="B21" s="104" t="s">
+      <c r="B21" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="104">
+      <c r="C21" s="103">
         <v>29</v>
       </c>
-      <c r="D21" s="104">
+      <c r="D21" s="103">
         <v>34</v>
       </c>
-      <c r="E21" s="104">
+      <c r="E21" s="103">
         <v>89</v>
       </c>
-      <c r="F21" s="104">
+      <c r="F21" s="103">
         <v>60</v>
       </c>
-      <c r="G21" s="104">
+      <c r="G21" s="103">
         <v>70</v>
       </c>
-      <c r="H21" s="108">
+      <c r="H21" s="107">
         <f t="shared" si="0"/>
         <v>282</v>
       </c>
-      <c r="I21" s="229">
+      <c r="I21" s="129">
         <f t="shared" si="1"/>
-        <v>56.399999999999991</v>
-      </c>
-      <c r="J21" s="109"/>
-      <c r="K21" s="109"/>
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="J21" s="107" t="str" cm="1">
+        <f t="array" ref="J21">_xlfn.SWITCH(TRUE,I21&gt;80%,"A+",I21&gt;=60%,"A",I21&gt;=45%,"B",I21&gt;33%,"B+","C")</f>
+        <v>B</v>
+      </c>
+      <c r="K21" s="107" t="str">
+        <f t="shared" si="2"/>
+        <v>Pass</v>
+      </c>
     </row>
     <row r="22" spans="1:18" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="104">
+      <c r="A22" s="103">
         <v>815874</v>
       </c>
-      <c r="B22" s="104" t="s">
+      <c r="B22" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="104">
+      <c r="C22" s="103">
         <v>26</v>
       </c>
-      <c r="D22" s="104">
+      <c r="D22" s="103">
         <v>82</v>
       </c>
-      <c r="E22" s="104">
+      <c r="E22" s="103">
         <v>73</v>
       </c>
-      <c r="F22" s="104">
+      <c r="F22" s="103">
         <v>46</v>
       </c>
-      <c r="G22" s="104">
+      <c r="G22" s="103">
         <v>62</v>
       </c>
-      <c r="H22" s="108">
+      <c r="H22" s="107">
         <f t="shared" si="0"/>
         <v>289</v>
       </c>
-      <c r="I22" s="229">
+      <c r="I22" s="129">
         <f t="shared" si="1"/>
-        <v>57.8</v>
-      </c>
-      <c r="J22" s="109"/>
-      <c r="K22" s="109"/>
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="J22" s="107" t="str" cm="1">
+        <f t="array" ref="J22">_xlfn.SWITCH(TRUE,I22&gt;80%,"A+",I22&gt;=60%,"A",I22&gt;=45%,"B",I22&gt;33%,"B+","C")</f>
+        <v>B</v>
+      </c>
+      <c r="K22" s="107" t="str">
+        <f t="shared" si="2"/>
+        <v>Pass</v>
+      </c>
     </row>
     <row r="23" spans="1:18" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="104">
+      <c r="A23" s="103">
         <v>815875</v>
       </c>
-      <c r="B23" s="104" t="s">
+      <c r="B23" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="104">
+      <c r="C23" s="103">
         <v>53</v>
       </c>
-      <c r="D23" s="104">
+      <c r="D23" s="103">
         <v>27</v>
       </c>
-      <c r="E23" s="104">
+      <c r="E23" s="103">
         <v>30</v>
       </c>
-      <c r="F23" s="104">
+      <c r="F23" s="103">
         <v>86</v>
       </c>
-      <c r="G23" s="104">
+      <c r="G23" s="103">
         <v>38</v>
       </c>
-      <c r="H23" s="108">
+      <c r="H23" s="107">
         <f t="shared" si="0"/>
         <v>234</v>
       </c>
-      <c r="I23" s="229">
+      <c r="I23" s="129">
         <f t="shared" si="1"/>
-        <v>46.800000000000004</v>
-      </c>
-      <c r="J23" s="109"/>
-      <c r="K23" s="109"/>
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="J23" s="107" t="str" cm="1">
+        <f t="array" ref="J23">_xlfn.SWITCH(TRUE,I23&gt;80%,"A+",I23&gt;=60%,"A",I23&gt;=45%,"B",I23&gt;33%,"B+","C")</f>
+        <v>B</v>
+      </c>
+      <c r="K23" s="107" t="str">
+        <f t="shared" si="2"/>
+        <v>Pass</v>
+      </c>
     </row>
     <row r="24" spans="1:18" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="104">
+      <c r="A24" s="103">
         <v>815876</v>
       </c>
-      <c r="B24" s="104" t="s">
+      <c r="B24" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="104">
+      <c r="C24" s="103">
         <v>66</v>
       </c>
-      <c r="D24" s="104">
+      <c r="D24" s="103">
         <v>22</v>
       </c>
-      <c r="E24" s="104">
+      <c r="E24" s="103">
         <v>50</v>
       </c>
-      <c r="F24" s="104">
+      <c r="F24" s="103">
         <v>73</v>
       </c>
-      <c r="G24" s="104">
+      <c r="G24" s="103">
         <v>23</v>
       </c>
-      <c r="H24" s="108">
+      <c r="H24" s="107">
         <f t="shared" si="0"/>
         <v>234</v>
       </c>
-      <c r="I24" s="229">
+      <c r="I24" s="129">
         <f t="shared" si="1"/>
-        <v>46.800000000000004</v>
-      </c>
-      <c r="J24" s="109"/>
-      <c r="K24" s="109"/>
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="J24" s="107" t="str" cm="1">
+        <f t="array" ref="J24">_xlfn.SWITCH(TRUE,I24&gt;80%,"A+",I24&gt;=60%,"A",I24&gt;=45%,"B",I24&gt;33%,"B+","C")</f>
+        <v>B</v>
+      </c>
+      <c r="K24" s="107" t="str">
+        <f t="shared" si="2"/>
+        <v>Pass</v>
+      </c>
     </row>
     <row r="25" spans="1:18" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="104">
+      <c r="A25" s="103">
         <v>815877</v>
       </c>
-      <c r="B25" s="104" t="s">
+      <c r="B25" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="104">
+      <c r="C25" s="103">
         <v>33</v>
       </c>
-      <c r="D25" s="104">
+      <c r="D25" s="103">
         <v>63</v>
       </c>
-      <c r="E25" s="104">
+      <c r="E25" s="103">
         <v>95</v>
       </c>
-      <c r="F25" s="104">
+      <c r="F25" s="103">
         <v>74</v>
       </c>
-      <c r="G25" s="104">
+      <c r="G25" s="103">
         <v>70</v>
       </c>
-      <c r="H25" s="108">
+      <c r="H25" s="107">
         <f t="shared" si="0"/>
         <v>335</v>
       </c>
-      <c r="I25" s="229">
+      <c r="I25" s="129">
         <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="J25" s="109"/>
-      <c r="K25" s="109"/>
+        <v>0.67</v>
+      </c>
+      <c r="J25" s="107" t="str" cm="1">
+        <f t="array" ref="J25">_xlfn.SWITCH(TRUE,I25&gt;80%,"A+",I25&gt;=60%,"A",I25&gt;=45%,"B",I25&gt;33%,"B+","C")</f>
+        <v>A</v>
+      </c>
+      <c r="K25" s="107" t="str">
+        <f t="shared" si="2"/>
+        <v>Pass</v>
+      </c>
     </row>
     <row r="26" spans="1:18" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="104">
+      <c r="A26" s="103">
         <v>815878</v>
       </c>
-      <c r="B26" s="104" t="s">
+      <c r="B26" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="104">
+      <c r="C26" s="103">
         <v>24</v>
       </c>
-      <c r="D26" s="104">
+      <c r="D26" s="103">
         <v>51</v>
       </c>
-      <c r="E26" s="104">
+      <c r="E26" s="103">
         <v>70</v>
       </c>
-      <c r="F26" s="104">
+      <c r="F26" s="103">
         <v>47</v>
       </c>
-      <c r="G26" s="104">
+      <c r="G26" s="103">
         <v>28</v>
       </c>
-      <c r="H26" s="108">
+      <c r="H26" s="107">
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-      <c r="I26" s="229">
+      <c r="I26" s="129">
         <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="J26" s="109"/>
-      <c r="K26" s="109"/>
+        <v>0.44</v>
+      </c>
+      <c r="J26" s="107" t="str" cm="1">
+        <f t="array" ref="J26">_xlfn.SWITCH(TRUE,I26&gt;80%,"A+",I26&gt;=60%,"A",I26&gt;=45%,"B",I26&gt;33%,"B+","C")</f>
+        <v>B+</v>
+      </c>
+      <c r="K26" s="107" t="str">
+        <f t="shared" si="2"/>
+        <v>Pass</v>
+      </c>
     </row>
     <row r="27" spans="1:18" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="104">
+      <c r="A27" s="103">
         <v>815879</v>
       </c>
-      <c r="B27" s="104" t="s">
+      <c r="B27" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="104">
+      <c r="C27" s="103">
         <v>62</v>
       </c>
-      <c r="D27" s="104">
+      <c r="D27" s="103">
         <v>88</v>
       </c>
-      <c r="E27" s="104">
+      <c r="E27" s="103">
         <v>84</v>
       </c>
-      <c r="F27" s="104">
+      <c r="F27" s="103">
         <v>68</v>
       </c>
-      <c r="G27" s="104">
+      <c r="G27" s="103">
         <v>65</v>
       </c>
-      <c r="H27" s="108">
+      <c r="H27" s="107">
         <f>SUM(C27:G27)</f>
         <v>367</v>
       </c>
-      <c r="I27" s="229">
+      <c r="I27" s="129">
         <f t="shared" si="1"/>
-        <v>73.400000000000006</v>
-      </c>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="J27" s="107" t="str" cm="1">
+        <f t="array" ref="J27">_xlfn.SWITCH(TRUE,I27&gt;80%,"A+",I27&gt;=60%,"A",I27&gt;=45%,"B",I27&gt;33%,"B+","C")</f>
+        <v>A</v>
+      </c>
+      <c r="K27" s="107" t="str">
+        <f t="shared" si="2"/>
+        <v>Pass</v>
+      </c>
     </row>
     <row r="28" spans="1:18" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="104">
+      <c r="A28" s="103">
         <v>815880</v>
       </c>
-      <c r="B28" s="104" t="s">
+      <c r="B28" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="104">
+      <c r="C28" s="103">
         <v>21</v>
       </c>
-      <c r="D28" s="104">
+      <c r="D28" s="103">
         <v>41</v>
       </c>
-      <c r="E28" s="104">
+      <c r="E28" s="103">
         <v>41</v>
       </c>
-      <c r="F28" s="104">
+      <c r="F28" s="103">
         <v>62</v>
       </c>
-      <c r="G28" s="104">
+      <c r="G28" s="103">
         <v>47</v>
       </c>
-      <c r="H28" s="108">
+      <c r="H28" s="107">
         <f t="shared" si="0"/>
         <v>212</v>
       </c>
-      <c r="I28" s="229">
+      <c r="I28" s="129">
         <f t="shared" si="1"/>
-        <v>42.4</v>
-      </c>
-      <c r="J28" s="109"/>
-      <c r="K28" s="109"/>
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="J28" s="107" t="str" cm="1">
+        <f t="array" ref="J28">_xlfn.SWITCH(TRUE,I28&gt;80%,"A+",I28&gt;=60%,"A",I28&gt;=45%,"B",I28&gt;33%,"B+","C")</f>
+        <v>B+</v>
+      </c>
+      <c r="K28" s="107" t="str">
+        <f t="shared" si="2"/>
+        <v>Pass</v>
+      </c>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
@@ -4423,37 +4494,43 @@
       <c r="R28" s="5"/>
     </row>
     <row r="29" spans="1:18" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="104">
+      <c r="A29" s="103">
         <v>815881</v>
       </c>
-      <c r="B29" s="104" t="s">
+      <c r="B29" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="104">
+      <c r="C29" s="103">
         <v>92</v>
       </c>
-      <c r="D29" s="104">
+      <c r="D29" s="103">
         <v>53</v>
       </c>
-      <c r="E29" s="104">
+      <c r="E29" s="103">
         <v>91</v>
       </c>
-      <c r="F29" s="104">
+      <c r="F29" s="103">
         <v>32</v>
       </c>
-      <c r="G29" s="104">
+      <c r="G29" s="103">
         <v>52</v>
       </c>
-      <c r="H29" s="108">
+      <c r="H29" s="107">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="I29" s="229">
+      <c r="I29" s="129">
         <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="J29" s="109"/>
-      <c r="K29" s="109"/>
+        <v>0.64</v>
+      </c>
+      <c r="J29" s="107" t="str" cm="1">
+        <f t="array" ref="J29">_xlfn.SWITCH(TRUE,I29&gt;80%,"A+",I29&gt;=60%,"A",I29&gt;=45%,"B",I29&gt;33%,"B+","C")</f>
+        <v>A</v>
+      </c>
+      <c r="K29" s="107" t="str">
+        <f t="shared" si="2"/>
+        <v>Pass</v>
+      </c>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
@@ -4463,37 +4540,43 @@
       <c r="R29" s="5"/>
     </row>
     <row r="30" spans="1:18" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="104">
+      <c r="A30" s="103">
         <v>815882</v>
       </c>
-      <c r="B30" s="104" t="s">
+      <c r="B30" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="104">
+      <c r="C30" s="103">
         <v>71</v>
       </c>
-      <c r="D30" s="104">
+      <c r="D30" s="103">
         <v>88</v>
       </c>
-      <c r="E30" s="104">
+      <c r="E30" s="103">
         <v>25</v>
       </c>
-      <c r="F30" s="104">
+      <c r="F30" s="103">
         <v>89</v>
       </c>
-      <c r="G30" s="104">
+      <c r="G30" s="103">
         <v>72</v>
       </c>
-      <c r="H30" s="108">
+      <c r="H30" s="107">
         <f t="shared" si="0"/>
         <v>345</v>
       </c>
-      <c r="I30" s="229">
+      <c r="I30" s="129">
         <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="J30" s="109"/>
-      <c r="K30" s="109"/>
+        <v>0.69</v>
+      </c>
+      <c r="J30" s="107" t="str" cm="1">
+        <f t="array" ref="J30">_xlfn.SWITCH(TRUE,I30&gt;80%,"A+",I30&gt;=60%,"A",I30&gt;=45%,"B",I30&gt;33%,"B+","C")</f>
+        <v>A</v>
+      </c>
+      <c r="K30" s="107" t="str">
+        <f t="shared" si="2"/>
+        <v>Pass</v>
+      </c>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
@@ -4503,37 +4586,43 @@
       <c r="R30" s="5"/>
     </row>
     <row r="31" spans="1:18" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="104">
+      <c r="A31" s="103">
         <v>815883</v>
       </c>
-      <c r="B31" s="104" t="s">
+      <c r="B31" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="104">
+      <c r="C31" s="103">
         <v>66</v>
       </c>
-      <c r="D31" s="104">
+      <c r="D31" s="103">
         <v>68</v>
       </c>
-      <c r="E31" s="104">
+      <c r="E31" s="103">
         <v>96</v>
       </c>
-      <c r="F31" s="104">
+      <c r="F31" s="103">
         <v>44</v>
       </c>
-      <c r="G31" s="104">
+      <c r="G31" s="103">
         <v>72</v>
       </c>
-      <c r="H31" s="108">
+      <c r="H31" s="107">
         <f t="shared" si="0"/>
         <v>346</v>
       </c>
-      <c r="I31" s="229">
+      <c r="I31" s="129">
         <f t="shared" si="1"/>
-        <v>69.199999999999989</v>
-      </c>
-      <c r="J31" s="109"/>
-      <c r="K31" s="109"/>
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="J31" s="107" t="str" cm="1">
+        <f t="array" ref="J31">_xlfn.SWITCH(TRUE,I31&gt;80%,"A+",I31&gt;=60%,"A",I31&gt;=45%,"B",I31&gt;33%,"B+","C")</f>
+        <v>A</v>
+      </c>
+      <c r="K31" s="107" t="str">
+        <f t="shared" si="2"/>
+        <v>Pass</v>
+      </c>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
@@ -4543,37 +4632,43 @@
       <c r="R31" s="5"/>
     </row>
     <row r="32" spans="1:18" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="104">
+      <c r="A32" s="103">
         <v>815884</v>
       </c>
-      <c r="B32" s="104" t="s">
+      <c r="B32" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="104">
+      <c r="C32" s="103">
         <v>33</v>
       </c>
-      <c r="D32" s="104">
+      <c r="D32" s="103">
         <v>29</v>
       </c>
-      <c r="E32" s="104">
+      <c r="E32" s="103">
         <v>27</v>
       </c>
-      <c r="F32" s="104">
+      <c r="F32" s="103">
         <v>44</v>
       </c>
-      <c r="G32" s="104">
+      <c r="G32" s="103">
         <v>21</v>
       </c>
-      <c r="H32" s="108">
+      <c r="H32" s="107">
         <f t="shared" si="0"/>
         <v>154</v>
       </c>
-      <c r="I32" s="229">
+      <c r="I32" s="129">
         <f t="shared" si="1"/>
-        <v>30.8</v>
-      </c>
-      <c r="J32" s="109"/>
-      <c r="K32" s="109"/>
+        <v>0.308</v>
+      </c>
+      <c r="J32" s="107" t="str" cm="1">
+        <f t="array" ref="J32">_xlfn.SWITCH(TRUE,I32&gt;80%,"A+",I32&gt;=60%,"A",I32&gt;=45%,"B",I32&gt;33%,"B+","C")</f>
+        <v>C</v>
+      </c>
+      <c r="K32" s="107" t="str">
+        <f t="shared" si="2"/>
+        <v>Fail</v>
+      </c>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
@@ -4583,37 +4678,43 @@
       <c r="R32" s="5"/>
     </row>
     <row r="33" spans="1:18" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="104">
+      <c r="A33" s="103">
         <v>815885</v>
       </c>
-      <c r="B33" s="104" t="s">
+      <c r="B33" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="104">
+      <c r="C33" s="103">
         <v>22</v>
       </c>
-      <c r="D33" s="104">
+      <c r="D33" s="103">
         <v>28</v>
       </c>
-      <c r="E33" s="104">
+      <c r="E33" s="103">
         <v>33</v>
       </c>
-      <c r="F33" s="104">
+      <c r="F33" s="103">
         <v>26</v>
       </c>
-      <c r="G33" s="104">
+      <c r="G33" s="103">
         <v>42</v>
       </c>
-      <c r="H33" s="108">
+      <c r="H33" s="107">
         <f t="shared" si="0"/>
         <v>151</v>
       </c>
-      <c r="I33" s="229">
+      <c r="I33" s="129">
         <f t="shared" si="1"/>
-        <v>30.2</v>
-      </c>
-      <c r="J33" s="109"/>
-      <c r="K33" s="109"/>
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="J33" s="107" t="str" cm="1">
+        <f t="array" ref="J33">_xlfn.SWITCH(TRUE,I33&gt;80%,"A+",I33&gt;=60%,"A",I33&gt;=45%,"B",I33&gt;33%,"B+","C")</f>
+        <v>C</v>
+      </c>
+      <c r="K33" s="107" t="str">
+        <f t="shared" si="2"/>
+        <v>Fail</v>
+      </c>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
@@ -4623,37 +4724,43 @@
       <c r="R33" s="5"/>
     </row>
     <row r="34" spans="1:18" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="107">
+      <c r="A34" s="106">
         <v>815886</v>
       </c>
-      <c r="B34" s="107" t="s">
+      <c r="B34" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="107">
+      <c r="C34" s="106">
         <v>48</v>
       </c>
-      <c r="D34" s="107">
+      <c r="D34" s="106">
         <v>82</v>
       </c>
-      <c r="E34" s="107">
+      <c r="E34" s="106">
         <v>95</v>
       </c>
-      <c r="F34" s="107">
+      <c r="F34" s="106">
         <v>53</v>
       </c>
-      <c r="G34" s="107">
+      <c r="G34" s="106">
         <v>47</v>
       </c>
-      <c r="H34" s="108">
+      <c r="H34" s="107">
         <f t="shared" si="0"/>
         <v>325</v>
       </c>
-      <c r="I34" s="229">
+      <c r="I34" s="129">
         <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="J34" s="111"/>
-      <c r="K34" s="111"/>
+        <v>0.65</v>
+      </c>
+      <c r="J34" s="107" t="str" cm="1">
+        <f t="array" ref="J34">_xlfn.SWITCH(TRUE,I34&gt;80%,"A+",I34&gt;=60%,"A",I34&gt;=45%,"B",I34&gt;33%,"B+","C")</f>
+        <v>A</v>
+      </c>
+      <c r="K34" s="107" t="str">
+        <f t="shared" si="2"/>
+        <v>Pass</v>
+      </c>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
@@ -4674,11 +4781,16 @@
     </row>
     <row r="65" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H65" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A3:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:K5"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="G3:K3"/>
@@ -4688,11 +4800,6 @@
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="J8:K8"/>
-    <mergeCell ref="A3:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4701,10 +4808,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4713,7 +4820,7 @@
     <col min="5" max="5" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>98</v>
       </c>
@@ -4723,12 +4830,12 @@
       <c r="E1" s="13"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:12" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="60">
-        <f>COUNTIF(_xlfn.ANCHORARRAY(G4),2)</f>
+      <c r="B2" s="60" cm="1">
+        <f t="array" ref="B2">SUMPRODUCT(--(LEN(A4:F10)=2))</f>
         <v>24</v>
       </c>
       <c r="C2" s="60"/>
@@ -4737,13 +4844,13 @@
       <c r="F2" s="49"/>
       <c r="G2" s="26"/>
     </row>
-    <row r="3" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="43"/>
       <c r="D3" s="23"/>
       <c r="E3" s="43"/>
       <c r="F3" s="43"/>
     </row>
-    <row r="4" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="62" t="s">
         <v>10</v>
       </c>
@@ -4762,27 +4869,8 @@
       <c r="F4" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="26" cm="1">
-        <f t="array" ref="G4:L10">LEN(A4:F10)</f>
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
@@ -4801,26 +4889,8 @@
       <c r="F5" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G5" s="26">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
@@ -4839,26 +4909,8 @@
       <c r="F6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="26">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
@@ -4877,26 +4929,8 @@
       <c r="F7" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G7" s="26">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>20</v>
       </c>
@@ -4915,26 +4949,8 @@
       <c r="F8" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-      <c r="H8">
-        <v>4</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>23</v>
       </c>
@@ -4953,26 +4969,8 @@
       <c r="F9" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G9" s="26">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>4</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>23</v>
       </c>
@@ -4991,26 +4989,8 @@
       <c r="F10" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G10" s="26">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="J10">
-        <v>3</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
@@ -5026,7 +5006,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5059,7 +5039,7 @@
     </row>
     <row r="3" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="53"/>
@@ -5069,6 +5049,9 @@
       <c r="G3" s="13"/>
       <c r="H3" s="53"/>
       <c r="I3" s="57"/>
+      <c r="J3" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="52"/>
@@ -5086,8 +5069,8 @@
         <v>97</v>
       </c>
       <c r="B5" s="28">
-        <f>LEN(B3)</f>
-        <v>0</v>
+        <f>LEN(J3)-LEN(SUBSTITUTE(J3," ",""))</f>
+        <v>9</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
@@ -5111,7 +5094,7 @@
     </row>
     <row r="7" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="40"/>
@@ -5137,7 +5120,10 @@
       <c r="A9" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="28">
+        <f>LEN(SUBSTITUTE(J3," ",""))</f>
+        <v>41</v>
+      </c>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
@@ -5164,7 +5150,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P440"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:L3"/>
     </sheetView>
   </sheetViews>
@@ -5181,7 +5167,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -5206,26 +5192,26 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="18.600000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="133" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="132" t="s">
-        <v>114</v>
-      </c>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="134"/>
+      <c r="D2" s="130" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="132"/>
       <c r="O2" s="16" t="s">
         <v>1</v>
       </c>
@@ -5234,22 +5220,22 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="18.600000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="136"/>
+      <c r="A3" s="134"/>
       <c r="B3" s="67">
         <v>12</v>
       </c>
       <c r="C3" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="140"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="138"/>
       <c r="O3" s="16" t="s">
         <v>2</v>
       </c>
@@ -5275,7 +5261,7 @@
     </row>
     <row r="5" spans="1:16" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" s="40"/>
       <c r="C5" s="41"/>
@@ -5300,26 +5286,26 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="135" t="s">
+      <c r="A6" s="133" t="s">
         <v>97</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="132" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133"/>
-      <c r="L6" s="134"/>
+      <c r="D6" s="130" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="132"/>
       <c r="M6">
         <v>3</v>
       </c>
@@ -5331,22 +5317,22 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="136"/>
+      <c r="A7" s="134"/>
       <c r="B7" s="67">
         <v>2011</v>
       </c>
       <c r="C7" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="137"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="139"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="137"/>
       <c r="M7">
         <v>4</v>
       </c>
@@ -8879,7 +8865,7 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8896,7 +8882,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -8990,7 +8976,7 @@
         <v>10-10</v>
       </c>
       <c r="D6" s="34" t="str">
-        <f t="shared" ref="D6:D17" si="2">TEXT(A6,"mmmm-yy")</f>
+        <f t="shared" ref="D6:D16" si="2">TEXT(A6,"mmmm-yy")</f>
         <v>October-11</v>
       </c>
       <c r="E6" s="33" t="str">
@@ -9304,7 +9290,7 @@
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
-      <c r="D17" s="228"/>
+      <c r="D17" s="128"/>
       <c r="F17" s="23"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -9312,7 +9298,7 @@
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -9327,7 +9313,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9344,8 +9330,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="91" t="s">
-        <v>118</v>
+      <c r="A1" s="90" t="s">
+        <v>117</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="40"/>
@@ -9358,19 +9344,19 @@
       <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:10" s="18" customFormat="1" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="90"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="92"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="91"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="87" t="s">
         <v>97</v>
       </c>
       <c r="B3" s="28"/>
@@ -9383,7 +9369,7 @@
       <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="86" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="84" t="s">
@@ -9412,118 +9398,259 @@
       </c>
       <c r="J4" s="26"/>
     </row>
-    <row r="5" spans="1:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
+      <c r="B5" s="83" t="str">
+        <f>LEFT(A5,SEARCH(" ",A5)-1)</f>
+        <v>Rohit</v>
+      </c>
+      <c r="C5" s="83" t="str">
+        <f>RIGHT(A5,E5-F5)</f>
+        <v>Gupta</v>
+      </c>
       <c r="D5" s="83"/>
       <c r="E5" s="83">
         <f>LEN(A5)</f>
         <v>11</v>
       </c>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="96"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F5" s="83">
+        <f>SEARCH(" ",A5)</f>
+        <v>6</v>
+      </c>
+      <c r="G5" s="82">
+        <f t="shared" ref="G5:G6" si="0">IFERROR(SEARCH(" ",A5,SEARCH(" ",A5)+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="83" t="str">
+        <f>SUBSTITUTE(A5," ","-")</f>
+        <v>Rohit-Gupta</v>
+      </c>
+      <c r="I5" s="95">
+        <f>LEN(A5)-LEN(SUBSTITUTE(A5," ",""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
+      <c r="B6" s="83" t="str">
+        <f t="shared" ref="B6:B11" si="1">LEFT(A6,SEARCH(" ",A6)-1)</f>
+        <v>Sanjeev</v>
+      </c>
+      <c r="C6" s="83" t="str">
+        <f t="shared" ref="C6" si="2">RIGHT(A6,E6-F6)</f>
+        <v>kumar</v>
+      </c>
       <c r="D6" s="81"/>
       <c r="E6" s="83">
-        <f t="shared" ref="E6:E11" si="0">LEN(A6)</f>
+        <f t="shared" ref="E6:E11" si="3">LEN(A6)</f>
         <v>13</v>
       </c>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F6" s="83">
+        <f t="shared" ref="F6:F11" si="4">SEARCH(" ",A6)</f>
+        <v>8</v>
+      </c>
+      <c r="G6" s="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="83" t="str">
+        <f t="shared" ref="H6:H11" si="5">SUBSTITUTE(A6," ","-")</f>
+        <v>Sanjeev-kumar</v>
+      </c>
+      <c r="I6" s="95">
+        <f t="shared" ref="I6:I11" si="6">LEN(A6)-LEN(SUBSTITUTE(A6," ",""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="95"/>
+      <c r="B7" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>Rohit</v>
+      </c>
+      <c r="C7" s="83" t="str">
+        <f>RIGHT(A7,LEN(A7)-SEARCH(" ",A7,SEARCH(" ",A7)+1))</f>
+        <v>Gupta</v>
+      </c>
+      <c r="D7" s="94" t="str">
+        <f>MID(A7,FIND(" ",A7)+1, SEARCH(" ",A7,SEARCH(" ",A7)+1)-SEARCH(" ",A7))</f>
+        <v xml:space="preserve">Kumar </v>
+      </c>
       <c r="E7" s="83">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="F7" s="81"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
+      <c r="F7" s="83">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="G7" s="82">
+        <f>IFERROR(SEARCH(" ",A7,SEARCH(" ",A7)+1),0)</f>
+        <v>12</v>
+      </c>
+      <c r="H7" s="83" t="str">
+        <f t="shared" si="5"/>
+        <v>Rohit-Kumar-Gupta</v>
+      </c>
+      <c r="I7" s="95">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
       <c r="J7" s="26"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
+      <c r="B8" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>Naveen</v>
+      </c>
+      <c r="C8" s="83" t="str">
+        <f t="shared" ref="C8:C11" si="7">RIGHT(A8,LEN(A8)-SEARCH(" ",A8,SEARCH(" ",A8)+1))</f>
+        <v>Singh</v>
+      </c>
+      <c r="D8" s="94" t="str">
+        <f t="shared" ref="D8:D11" si="8">MID(A8,FIND(" ",A8)+1, SEARCH(" ",A8,SEARCH(" ",A8)+1)-SEARCH(" ",A8))</f>
+        <v xml:space="preserve">Chauhan </v>
+      </c>
       <c r="E8" s="83">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F8" s="83">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="G8" s="82">
+        <f t="shared" ref="G8:G11" si="9">SEARCH(" ",A8,SEARCH(" ",A8)+1)</f>
+        <v>15</v>
+      </c>
+      <c r="H8" s="83" t="str">
+        <f t="shared" si="5"/>
+        <v>Naveen-Chauhan-Singh</v>
+      </c>
+      <c r="I8" s="95">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
+      <c r="B9" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>Arti</v>
+      </c>
+      <c r="C9" s="83" t="str">
+        <f t="shared" si="7"/>
+        <v>Chauhan</v>
+      </c>
+      <c r="D9" s="94" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">Singh </v>
+      </c>
       <c r="E9" s="83">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F9" s="83">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="G9" s="82">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="H9" s="83" t="str">
+        <f t="shared" si="5"/>
+        <v>Arti-Singh-Chauhan</v>
+      </c>
+      <c r="I9" s="95">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
+      <c r="B10" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>Rohit</v>
+      </c>
+      <c r="C10" s="83" t="str">
+        <f t="shared" si="7"/>
+        <v>Man</v>
+      </c>
+      <c r="D10" s="94" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">Arora </v>
+      </c>
       <c r="E10" s="83">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-    </row>
-    <row r="11" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="86" t="s">
+      <c r="F10" s="83">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="G10" s="82">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="H10" s="83" t="str">
+        <f t="shared" si="5"/>
+        <v>Rohit-Arora-Man</v>
+      </c>
+      <c r="I10" s="95">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
+      <c r="B11" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>Rahul</v>
+      </c>
+      <c r="C11" s="83" t="str">
+        <f t="shared" si="7"/>
+        <v>verma</v>
+      </c>
+      <c r="D11" s="94" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">badhe </v>
+      </c>
       <c r="E11" s="83">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
+      <c r="F11" s="83">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="G11" s="82">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="H11" s="83" t="str">
+        <f t="shared" si="5"/>
+        <v>Rahul-badhe-verma</v>
+      </c>
+      <c r="I11" s="95">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="4:4" x14ac:dyDescent="0.25">
@@ -9539,22 +9666,22 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:H10"/>
+      <selection activeCell="E9" sqref="E9:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="141" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="143"/>
+      <c r="A1" s="152" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="154"/>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9565,118 +9692,124 @@
       <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="120" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" s="144" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="146"/>
+      <c r="A3" s="116" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="155" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="144"/>
     </row>
     <row r="4" spans="1:9" ht="18" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="119">
+      <c r="A4" s="115">
         <v>1</v>
       </c>
-      <c r="B4" s="147" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="149"/>
+      <c r="B4" s="156" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="157"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="158"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="117">
+      <c r="A5" s="113">
         <v>2</v>
       </c>
-      <c r="B5" s="147" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="148"/>
-      <c r="D5" s="148"/>
-      <c r="E5" s="148"/>
-      <c r="F5" s="148"/>
-      <c r="G5" s="148"/>
-      <c r="H5" s="149"/>
+      <c r="B5" s="156" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="157"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="157"/>
+      <c r="G5" s="157"/>
+      <c r="H5" s="158"/>
       <c r="I5" s="26"/>
     </row>
     <row r="6" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="118">
+      <c r="A6" s="114">
         <v>3</v>
       </c>
-      <c r="B6" s="150" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="151"/>
-      <c r="D6" s="151"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="152"/>
+      <c r="B6" s="159" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="160"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="161"/>
       <c r="I6" s="26"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:9" ht="18.600000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="153" t="s">
+      <c r="A8" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="156" t="s">
+      <c r="B8" s="142" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="143"/>
+      <c r="D8" s="143"/>
+      <c r="E8" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="145"/>
-      <c r="D8" s="145"/>
-      <c r="E8" s="156" t="s">
-        <v>121</v>
-      </c>
-      <c r="F8" s="145"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="146"/>
-    </row>
-    <row r="9" spans="1:9" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="154"/>
-      <c r="B9" s="166" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="167"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="157">
-        <f>COUNTIF(B4,"rohit")</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="158"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="159"/>
-    </row>
-    <row r="10" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="154"/>
-      <c r="B10" s="169" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="169"/>
-      <c r="D10" s="169"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="162"/>
-    </row>
-    <row r="11" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="155"/>
-      <c r="B11" s="169" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="169"/>
-      <c r="D11" s="169"/>
-      <c r="E11" s="163"/>
-      <c r="F11" s="164"/>
-      <c r="G11" s="164"/>
-      <c r="H11" s="165"/>
+      <c r="F8" s="143"/>
+      <c r="G8" s="143"/>
+      <c r="H8" s="144"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="140"/>
+      <c r="B9" s="148" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="149"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="145">
+        <f>(LEN(B4)-LEN(SUBSTITUTE(B4,B9,"")))/LEN(B9)</f>
+        <v>3</v>
+      </c>
+      <c r="F9" s="146"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="147"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="140"/>
+      <c r="B10" s="151" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="151"/>
+      <c r="D10" s="151"/>
+      <c r="E10" s="145">
+        <f t="shared" ref="E10:E11" si="0">(LEN(B5)-LEN(SUBSTITUTE(B5,B10,"")))/LEN(B10)</f>
+        <v>2</v>
+      </c>
+      <c r="F10" s="146"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="147"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="141"/>
+      <c r="B11" s="151" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="151"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="145">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="147"/>
       <c r="I11" s="26"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -9686,6 +9819,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="E8:H8"/>
     <mergeCell ref="E9:H9"/>
@@ -9695,11 +9833,6 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9710,7 +9843,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:J6"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9719,192 +9852,210 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="162" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="164"/>
+    </row>
+    <row r="2" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="165"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="167"/>
+    </row>
+    <row r="3" spans="1:13" s="18" customFormat="1" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="123"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+    </row>
+    <row r="4" spans="1:13" s="18" customFormat="1" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="168" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="168"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="169"/>
+      <c r="K4" s="121"/>
+      <c r="M4"/>
+    </row>
+    <row r="5" spans="1:13" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="117" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
-      <c r="H1" s="182"/>
-      <c r="I1" s="182"/>
-      <c r="J1" s="183"/>
-    </row>
-    <row r="2" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="184"/>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="186"/>
-    </row>
-    <row r="3" spans="1:13" s="18" customFormat="1" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="127"/>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-    </row>
-    <row r="4" spans="1:13" s="18" customFormat="1" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="187" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="187"/>
-      <c r="C4" s="187"/>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="187"/>
-      <c r="H4" s="187"/>
-      <c r="I4" s="187"/>
-      <c r="J4" s="188"/>
-      <c r="K4" s="125"/>
-      <c r="M4"/>
-    </row>
-    <row r="5" spans="1:13" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="121" t="s">
-        <v>141</v>
-      </c>
-      <c r="B5" s="156" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="145"/>
-      <c r="D5" s="146"/>
-      <c r="E5" s="156" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" s="146"/>
-      <c r="G5" s="156" t="s">
+      <c r="B5" s="142" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="143"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="142" t="s">
         <v>138</v>
       </c>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="146"/>
-    </row>
-    <row r="6" spans="1:13" ht="18" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="124">
+      <c r="F5" s="144"/>
+      <c r="G5" s="142" t="s">
+        <v>137</v>
+      </c>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="120">
         <v>1</v>
       </c>
-      <c r="B6" s="192" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="194"/>
-      <c r="D6" s="193"/>
-      <c r="E6" s="192" t="s">
+      <c r="B6" s="173" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="177"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="173" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="174"/>
+      <c r="G6" s="170" t="str">
+        <f>PROPER(IF(E6="F","Mrs.","Mr. ")&amp;RIGHT(B6,LEN(B6)-SEARCH(",",B6))&amp;" "&amp;LEFT(B6,SEARCH(",",B6)-1))</f>
+        <v>Mrs.Bharti Gupta</v>
+      </c>
+      <c r="H6" s="171"/>
+      <c r="I6" s="171"/>
+      <c r="J6" s="172"/>
+      <c r="K6" s="26"/>
+    </row>
+    <row r="7" spans="1:13" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="122">
+        <v>2</v>
+      </c>
+      <c r="B7" s="178" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="178"/>
+      <c r="D7" s="178"/>
+      <c r="E7" s="175" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="176"/>
+      <c r="G7" s="170" t="str">
+        <f t="shared" ref="G7:G11" si="0">PROPER(IF(E7="F","Mrs.","Mr. ")&amp;RIGHT(B7,LEN(B7)-SEARCH(",",B7))&amp;" "&amp;LEFT(B7,SEARCH(",",B7)-1))</f>
+        <v>Mr. Chandan Negi</v>
+      </c>
+      <c r="H7" s="171"/>
+      <c r="I7" s="171"/>
+      <c r="J7" s="172"/>
+      <c r="K7" s="26"/>
+    </row>
+    <row r="8" spans="1:13" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="119">
+        <v>3</v>
+      </c>
+      <c r="B8" s="175" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="178"/>
+      <c r="D8" s="176"/>
+      <c r="E8" s="175" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="176"/>
+      <c r="G8" s="170" t="str">
+        <f t="shared" si="0"/>
+        <v>Mrs.Neha Malhotra</v>
+      </c>
+      <c r="H8" s="171"/>
+      <c r="I8" s="171"/>
+      <c r="J8" s="172"/>
+      <c r="K8" s="26"/>
+    </row>
+    <row r="9" spans="1:13" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="119">
+        <v>4</v>
+      </c>
+      <c r="B9" s="175" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="193"/>
-      <c r="G6" s="189"/>
-      <c r="H6" s="190"/>
-      <c r="I6" s="190"/>
-      <c r="J6" s="191"/>
-      <c r="K6" s="26"/>
-    </row>
-    <row r="7" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="126">
-        <v>2</v>
-      </c>
-      <c r="B7" s="176" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="176"/>
-      <c r="D7" s="176"/>
-      <c r="E7" s="175" t="s">
+      <c r="C9" s="178"/>
+      <c r="D9" s="176"/>
+      <c r="E9" s="175" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="176"/>
+      <c r="G9" s="170" t="str">
+        <f t="shared" si="0"/>
+        <v>Mrs.Daljeet Kaur</v>
+      </c>
+      <c r="H9" s="171"/>
+      <c r="I9" s="171"/>
+      <c r="J9" s="172"/>
+      <c r="K9" s="26"/>
+    </row>
+    <row r="10" spans="1:13" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="119">
+        <v>5</v>
+      </c>
+      <c r="B10" s="175" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="178"/>
+      <c r="D10" s="176"/>
+      <c r="E10" s="175" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="176"/>
+      <c r="G10" s="170" t="str">
+        <f t="shared" si="0"/>
+        <v>Mr. Virit Shukla</v>
+      </c>
+      <c r="H10" s="171"/>
+      <c r="I10" s="171"/>
+      <c r="J10" s="172"/>
+      <c r="K10" s="26"/>
+    </row>
+    <row r="11" spans="1:13" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="119">
+        <v>6</v>
+      </c>
+      <c r="B11" s="179" t="s">
         <v>130</v>
       </c>
-      <c r="F7" s="177"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="170"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="26"/>
-    </row>
-    <row r="8" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="123">
-        <v>3</v>
-      </c>
-      <c r="B8" s="175" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="176"/>
-      <c r="D8" s="177"/>
-      <c r="E8" s="175" t="s">
-        <v>133</v>
-      </c>
-      <c r="F8" s="177"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="170"/>
-      <c r="I8" s="170"/>
-      <c r="J8" s="170"/>
-      <c r="K8" s="26"/>
-    </row>
-    <row r="9" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="123">
-        <v>4</v>
-      </c>
-      <c r="B9" s="175" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="176"/>
-      <c r="D9" s="177"/>
-      <c r="E9" s="175" t="s">
-        <v>133</v>
-      </c>
-      <c r="F9" s="177"/>
-      <c r="G9" s="171"/>
-      <c r="H9" s="170"/>
-      <c r="I9" s="170"/>
-      <c r="J9" s="170"/>
-      <c r="K9" s="26"/>
-    </row>
-    <row r="10" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="123">
-        <v>5</v>
-      </c>
-      <c r="B10" s="175" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="176"/>
-      <c r="D10" s="177"/>
-      <c r="E10" s="175" t="s">
-        <v>130</v>
-      </c>
-      <c r="F10" s="177"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="170"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="170"/>
-      <c r="K10" s="26"/>
-    </row>
-    <row r="11" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="123">
-        <v>6</v>
-      </c>
-      <c r="B11" s="178" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="179"/>
-      <c r="D11" s="180"/>
+      <c r="C11" s="180"/>
+      <c r="D11" s="181"/>
       <c r="E11" s="175" t="s">
-        <v>130</v>
-      </c>
-      <c r="F11" s="177"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="173"/>
-      <c r="I11" s="173"/>
-      <c r="J11" s="174"/>
+        <v>129</v>
+      </c>
+      <c r="F11" s="176"/>
+      <c r="G11" s="170" t="str">
+        <f t="shared" si="0"/>
+        <v>Mr. Priyank Agarwal</v>
+      </c>
+      <c r="H11" s="171"/>
+      <c r="I11" s="171"/>
+      <c r="J11" s="172"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
@@ -9913,17 +10064,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B5:D5"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="G10:J10"/>
@@ -9936,6 +10076,17 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9946,112 +10097,124 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:H5"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="195" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" s="196"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
-      <c r="G1" s="196"/>
-      <c r="H1" s="196"/>
+      <c r="A1" s="186" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="203" t="s">
+      <c r="A3" s="182" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
       <c r="I3" s="26"/>
     </row>
     <row r="4" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="130" t="s">
+      <c r="A4" s="126" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="188" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="190"/>
+      <c r="G4" s="184" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" s="185"/>
+      <c r="I4" s="26"/>
+    </row>
+    <row r="5" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="127">
+        <v>1</v>
+      </c>
+      <c r="B5" s="191" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="192"/>
+      <c r="D5" s="192"/>
+      <c r="E5" s="192"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="145" t="str">
+        <f>RIGHT(B5,LEN(B5)-(SEARCH("checkno.",B5)+7))</f>
+        <v>12345</v>
+      </c>
+      <c r="H5" s="147"/>
+      <c r="I5" s="26"/>
+    </row>
+    <row r="6" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="125">
+        <v>2</v>
+      </c>
+      <c r="B6" s="156" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="145" t="str">
+        <f t="shared" ref="G6:G8" si="0">RIGHT(B6,LEN(B6)-(SEARCH("checkno.",B6)+7))</f>
+        <v>123456</v>
+      </c>
+      <c r="H6" s="147"/>
+      <c r="I6" s="26"/>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="125">
+        <v>3</v>
+      </c>
+      <c r="B7" s="156" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="145" t="str">
+        <f t="shared" si="0"/>
+        <v>000789</v>
+      </c>
+      <c r="H7" s="147"/>
+      <c r="I7" s="26"/>
+    </row>
+    <row r="8" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="125">
+        <v>4</v>
+      </c>
+      <c r="B8" s="159" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="197" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" s="198"/>
-      <c r="D4" s="198"/>
-      <c r="E4" s="198"/>
-      <c r="F4" s="199"/>
-      <c r="G4" s="205" t="s">
-        <v>146</v>
-      </c>
-      <c r="H4" s="206"/>
-      <c r="I4" s="26"/>
-    </row>
-    <row r="5" spans="1:9" ht="18" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="131">
-        <v>1</v>
-      </c>
-      <c r="B5" s="200" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="201"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="202"/>
-      <c r="G5" s="157"/>
-      <c r="H5" s="159"/>
-      <c r="I5" s="26"/>
-    </row>
-    <row r="6" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="129">
-        <v>2</v>
-      </c>
-      <c r="B6" s="147" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="148"/>
-      <c r="D6" s="148"/>
-      <c r="E6" s="148"/>
-      <c r="F6" s="149"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="161"/>
-      <c r="I6" s="26"/>
-    </row>
-    <row r="7" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="129">
-        <v>3</v>
-      </c>
-      <c r="B7" s="147" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="148"/>
-      <c r="D7" s="148"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="160"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="26"/>
-    </row>
-    <row r="8" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="129">
-        <v>4</v>
-      </c>
-      <c r="B8" s="150" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="151"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="151"/>
-      <c r="F8" s="152"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="165"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="145" t="str">
+        <f t="shared" si="0"/>
+        <v>123456</v>
+      </c>
+      <c r="H8" s="147"/>
       <c r="I8" s="26"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -10059,6 +10222,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="G4:H4"/>
@@ -10066,11 +10234,6 @@
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
